--- a/Raw_Data/Gender_Age_Data/Age/Profession_Age_2016.xlsx
+++ b/Raw_Data/Gender_Age_Data/Age/Profession_Age_2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elliott\LearnPython\Project\Project1_Datasets\Age\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elliott\Documents\GitHub\Project1\Raw_Data\Gender_Age_Data\Age\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1762,9 +1762,6 @@
     <t>NOTE: Median age represents the midpoint in the age distribution such that half of workers are younger and half are older. Updated population controls are introduced annually with the release of January data. Dash indicates no data or data that do not meet publication criteria (values not shown where base is less than 50,000).</t>
   </si>
   <si>
-    <t xml:space="preserve">Occupation </t>
-  </si>
-  <si>
     <t>Industry</t>
   </si>
   <si>
@@ -1781,6 +1778,9 @@
   </si>
   <si>
     <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Occupation</t>
   </si>
 </sst>
 </file>
@@ -2150,7 +2150,7 @@
   <dimension ref="A1:K572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,10 +2163,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="66" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>75</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>76</v>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>77</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>78</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>79</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>80</v>
@@ -4456,7 +4456,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>81</v>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>82</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>83</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>84</v>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>85</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>86</v>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>87</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>88</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>89</v>
@@ -4771,7 +4771,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>90</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>91</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="83" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>92</v>
@@ -4876,7 +4876,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>93</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>94</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>95</v>
@@ -4981,7 +4981,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>96</v>
@@ -5016,7 +5016,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>97</v>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>98</v>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>99</v>
@@ -5121,7 +5121,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>100</v>
@@ -5156,7 +5156,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>101</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>102</v>
@@ -5226,7 +5226,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>103</v>
@@ -5261,7 +5261,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>104</v>
@@ -5296,7 +5296,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>105</v>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>106</v>
@@ -5366,7 +5366,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>107</v>
@@ -5401,7 +5401,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>108</v>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>109</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>110</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>111</v>
@@ -5541,7 +5541,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>112</v>
@@ -5576,7 +5576,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>113</v>
@@ -6379,7 +6379,7 @@
     </row>
     <row r="129" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>138</v>
@@ -6414,7 +6414,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>139</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>140</v>
@@ -6484,7 +6484,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>141</v>
@@ -6519,7 +6519,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>142</v>
@@ -6554,7 +6554,7 @@
     </row>
     <row r="134" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>143</v>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>144</v>
@@ -6624,7 +6624,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>145</v>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>146</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="138" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>147</v>
@@ -6729,7 +6729,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>148</v>
@@ -7308,7 +7308,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>166</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>167</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>168</v>
@@ -7413,7 +7413,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>169</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>170</v>
@@ -7483,7 +7483,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>171</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>172</v>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>173</v>
@@ -7588,7 +7588,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>174</v>
@@ -7623,7 +7623,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>175</v>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>186</v>
@@ -8013,7 +8013,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>187</v>
@@ -8048,7 +8048,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>188</v>
@@ -8083,7 +8083,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>189</v>
@@ -8118,7 +8118,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>190</v>
@@ -8153,7 +8153,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>191</v>
@@ -8188,7 +8188,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>192</v>
@@ -8223,7 +8223,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>193</v>
@@ -8258,7 +8258,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>194</v>
@@ -8293,7 +8293,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>195</v>
@@ -8328,7 +8328,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>196</v>
@@ -8363,7 +8363,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>197</v>
@@ -8398,7 +8398,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>198</v>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>199</v>
@@ -8468,7 +8468,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>200</v>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>201</v>
@@ -8538,7 +8538,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>202</v>
@@ -8573,7 +8573,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>203</v>
@@ -8608,7 +8608,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>204</v>
@@ -8643,7 +8643,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>205</v>
@@ -8678,7 +8678,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>206</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>207</v>
@@ -8748,7 +8748,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>208</v>
@@ -8783,7 +8783,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>209</v>
@@ -8818,7 +8818,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>210</v>
@@ -8853,7 +8853,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>211</v>
@@ -8888,7 +8888,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>212</v>
@@ -8923,7 +8923,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>213</v>
@@ -8958,7 +8958,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>214</v>
@@ -8993,7 +8993,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>215</v>
@@ -9028,7 +9028,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>216</v>
@@ -9063,7 +9063,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>217</v>
@@ -9098,7 +9098,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>218</v>
@@ -9133,7 +9133,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
